--- a/log.xlsx
+++ b/log.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pruned" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>M</t>
+  </si>
   <si>
     <t>acc_pruned</t>
   </si>
@@ -381,63 +384,63 @@
     <row r="1" spans="1:19">
       <c r="A1" t="s"/>
       <c r="B1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2</v>
-      </c>
       <c r="E1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" t="n">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
       </c>
       <c r="H1" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I1" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" t="n">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
       </c>
       <c r="L1" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="M1" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="N1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" t="n">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
       </c>
       <c r="P1" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="R1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" t="n">
-        <v>17</v>
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>85.18000000000001</v>
@@ -496,61 +499,61 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0005869865417480469</v>
+        <v>0.0003554821014404297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001120805740356445</v>
+        <v>0.001165866851806641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00162196159362793</v>
+        <v>0.0007023811340332031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002095699310302734</v>
+        <v>0.0008480548858642578</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003683090209960938</v>
+        <v>0.001065492630004883</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001992702484130859</v>
+        <v>0.00167536735534668</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005576372146606445</v>
+        <v>0.002814531326293945</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004559516906738281</v>
+        <v>0.001486778259277344</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00457763671875</v>
+        <v>0.001480579376220703</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005146026611328125</v>
+        <v>0.001751422882080078</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003583192825317383</v>
+        <v>0.004230260848999023</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003371715545654297</v>
+        <v>0.001964330673217773</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004806756973266602</v>
+        <v>0.002008438110351562</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.005287885665893555</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004463672637939453</v>
+        <v>0.002397298812866211</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008992671966552734</v>
+        <v>0.002733469009399414</v>
       </c>
       <c r="R3" t="n">
-        <v>0.009644985198974609</v>
+        <v>0.002460956573486328</v>
       </c>
       <c r="S3" t="n">
-        <v>0.006205558776855469</v>
+        <v>0.002576828002929688</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -612,7 +615,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>11264</v>
@@ -748,63 +751,63 @@
     <row r="1" spans="1:19">
       <c r="A1" t="s"/>
       <c r="B1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2</v>
-      </c>
       <c r="E1" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" t="n">
-        <v>5</v>
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
       </c>
       <c r="H1" t="n">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="I1" t="n">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="J1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" t="n">
-        <v>9</v>
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
       </c>
       <c r="L1" t="n">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="M1" t="n">
-        <v>11</v>
+        <v>512</v>
       </c>
       <c r="N1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" t="n">
-        <v>13</v>
+        <v>512</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
       </c>
       <c r="P1" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="Q1" t="n">
-        <v>15</v>
+        <v>512</v>
       </c>
       <c r="R1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" t="n">
-        <v>17</v>
+        <v>512</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>88.23</v>
@@ -863,61 +866,61 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00121760368347168</v>
+        <v>0.001738071441650391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001408576965332031</v>
+        <v>0.0007665157318115234</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00106358528137207</v>
+        <v>0.001196146011352539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001906156539916992</v>
+        <v>0.0009703636169433594</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003844499588012695</v>
+        <v>0.0009946823120117188</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002870082855224609</v>
+        <v>0.0009951591491699219</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004155397415161133</v>
+        <v>0.001305580139160156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002569913864135742</v>
+        <v>0.001493215560913086</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003161430358886719</v>
+        <v>0.001812934875488281</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002877950668334961</v>
+        <v>0.001664876937866211</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006962060928344727</v>
+        <v>0.002014398574829102</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006457328796386719</v>
+        <v>0.002228260040283203</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01092195510864258</v>
+        <v>0.002314090728759766</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005678653717041016</v>
+        <v>0.002287387847900391</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005821704864501953</v>
+        <v>0.002201318740844727</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005311250686645508</v>
+        <v>0.003576993942260742</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01043868064880371</v>
+        <v>0.002948999404907227</v>
       </c>
       <c r="S3" t="n">
-        <v>0.009403467178344727</v>
+        <v>0.002814292907714844</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -979,7 +982,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>65536</v>

--- a/log.xlsx
+++ b/log.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>M</t>
   </si>
@@ -26,9 +26,6 @@
     <t>time_original</t>
   </si>
   <si>
-    <t>prof_time_original</t>
-  </si>
-  <si>
     <t>bandwidth_original</t>
   </si>
   <si>
@@ -36,9 +33,6 @@
   </si>
   <si>
     <t>time_pruned</t>
-  </si>
-  <si>
-    <t>prof_time_pruned</t>
   </si>
   <si>
     <t>bandwidth_pruned</t>
@@ -120,7 +114,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Sheet!A4</f>
+              <f>Sheet!A3</f>
             </strRef>
           </tx>
           <spPr>
@@ -136,9 +130,14 @@
               </a:ln>
             </spPr>
           </marker>
+          <cat>
+            <numRef>
+              <f>Sheet!$B$15:$T$15</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$4:$T$4</f>
+              <f>Sheet!$B$3:$T$3</f>
             </numRef>
           </val>
         </ser>
@@ -147,7 +146,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>Sheet!A14</f>
+              <f>Sheet!A10</f>
             </strRef>
           </tx>
           <spPr>
@@ -163,9 +162,14 @@
               </a:ln>
             </spPr>
           </marker>
+          <cat>
+            <numRef>
+              <f>Sheet!$B$15:$T$15</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$14:$T$14</f>
+              <f>Sheet!$B$10:$T$10</f>
             </numRef>
           </val>
         </ser>
@@ -180,7 +184,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>Sheet!A6</f>
+              <f>Sheet!A4</f>
             </strRef>
           </tx>
           <spPr>
@@ -190,7 +194,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>Sheet!$B$6:$T$6</f>
+              <f>Sheet!$B$4:$T$4</f>
             </numRef>
           </val>
         </ser>
@@ -199,7 +203,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>Sheet!A16</f>
+              <f>Sheet!A11</f>
             </strRef>
           </tx>
           <spPr>
@@ -209,7 +213,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>Sheet!$B$16:$T$16</f>
+              <f>Sheet!$B$11:$T$11</f>
             </numRef>
           </val>
         </ser>
@@ -605,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,58 +681,58 @@
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="D2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="F2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="H2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="I2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="J2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="K2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="M2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="N2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="O2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="P2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="S2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
       <c r="T2" t="n">
-        <v>-1</v>
+        <v>88.23</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -739,58 +743,58 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04166674613952637</v>
+        <v>7.795129774305555e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08999967575073242</v>
+        <v>9.325129340277778e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08823657035827637</v>
+        <v>9.499391493055556e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1458070278167725</v>
+        <v>1.453837977430556e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2205455303192139</v>
+        <v>1.557563671875e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.245861291885376</v>
+        <v>1.573215321180556e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2333223819732666</v>
+        <v>1.698960026041667e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.303997278213501</v>
+        <v>1.791599826388888e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4082112312316895</v>
+        <v>1.908402517361111e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3669338226318359</v>
+        <v>1.923197960069445e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.419283390045166</v>
+        <v>2.031184505208333e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4925918579101562</v>
+        <v>2.127097395833333e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5584101676940918</v>
+        <v>2.224063107638889e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5797133445739746</v>
+        <v>2.238624913194444e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6328587532043457</v>
+        <v>2.462417013888889e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6737778186798096</v>
+        <v>2.558913975694445e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7936902046203613</v>
+        <v>2.724038715277778e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7576789855957031</v>
+        <v>2.739170008680555e-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -798,719 +802,363 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>3072</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65536</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32768</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32768</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8192</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8192</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8192</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2048</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2048</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2048</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2048</v>
+      </c>
+      <c r="T4" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s"/>
+      <c r="B8" t="s"/>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.026463762</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.080600017</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.08516008999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.13749396</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.209974006</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.242732185</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.226356066</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.298154608</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.400394322</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.363665209</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.413725924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.48704858</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.551691375</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.576272103</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.628359448</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.668405283</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.787822895</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.752656023</v>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>34</v>
+      </c>
+      <c r="K8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>58</v>
+      </c>
+      <c r="N8" t="n">
+        <v>68</v>
+      </c>
+      <c r="O8" t="n">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>58</v>
+      </c>
+      <c r="R8" t="n">
+        <v>55</v>
+      </c>
+      <c r="S8" t="n">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s"/>
-      <c r="B5" t="s"/>
-      <c r="C5" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D5" t="n">
-        <v>131072</v>
-      </c>
-      <c r="E5" t="n">
-        <v>147456</v>
-      </c>
-      <c r="F5" t="n">
-        <v>180224</v>
-      </c>
-      <c r="G5" t="n">
-        <v>212992</v>
-      </c>
-      <c r="H5" t="n">
-        <v>221184</v>
-      </c>
-      <c r="I5" t="n">
-        <v>237568</v>
-      </c>
-      <c r="J5" t="n">
-        <v>253952</v>
-      </c>
-      <c r="K5" t="n">
-        <v>270336</v>
-      </c>
-      <c r="L5" t="n">
-        <v>274432</v>
-      </c>
-      <c r="M5" t="n">
-        <v>282624</v>
-      </c>
-      <c r="N5" t="n">
-        <v>290816</v>
-      </c>
-      <c r="O5" t="n">
-        <v>299008</v>
-      </c>
-      <c r="P5" t="n">
-        <v>301056</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>303104</v>
-      </c>
-      <c r="R5" t="n">
-        <v>305152</v>
-      </c>
-      <c r="S5" t="n">
-        <v>307200</v>
-      </c>
-      <c r="T5" t="n">
-        <v>307712</v>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="n">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>79.28</v>
+      </c>
+      <c r="H9" t="n">
+        <v>79.28</v>
+      </c>
+      <c r="I9" t="n">
+        <v>84.17</v>
+      </c>
+      <c r="J9" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="L9" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>84.81999999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>84.47</v>
+      </c>
+      <c r="S9" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="T9" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3072</v>
-      </c>
-      <c r="C6" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D6" t="n">
-        <v>65536</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16384</v>
-      </c>
-      <c r="F6" t="n">
-        <v>32768</v>
-      </c>
-      <c r="G6" t="n">
-        <v>32768</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8192</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16384</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16384</v>
-      </c>
-      <c r="K6" t="n">
-        <v>16384</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4096</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8192</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8192</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8192</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2048</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2048</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2048</v>
-      </c>
-      <c r="T6" t="n">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s"/>
-      <c r="B7" t="s"/>
-      <c r="C7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="D7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="E7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="F7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="G7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="H7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="I7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="J7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="K7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="L7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="M7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="N7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="O7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="P7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="R7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="S7" t="n">
-        <v>307712</v>
-      </c>
-      <c r="T7" t="n">
-        <v>307712</v>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.350345052083334e-06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.830032118055556e-06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.995743489583333e-06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.591796354166666e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.700644010416667e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.716433680555556e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.942025086805556e-05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.040358072916667e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.136253559027778e-05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.151195138888889e-05</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.334573350694444e-05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.457497482638889e-05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.592435460069445e-05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.607075086805556e-05</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.705674305555556e-05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.801307161458333e-05</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.895292361111112e-05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.909630642361111e-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" t="s"/>
-      <c r="B11" t="s"/>
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3072</v>
+      </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>11264</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
+        <v>9216</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2304</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>5120</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>0</v>
+        <v>3328</v>
+      </c>
+      <c r="H11" t="n">
+        <v>832</v>
       </c>
       <c r="I11" t="n">
-        <v>35</v>
+        <v>2240</v>
       </c>
       <c r="J11" t="n">
-        <v>34</v>
+        <v>2176</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s">
-        <v>0</v>
+        <v>1920</v>
+      </c>
+      <c r="L11" t="n">
+        <v>480</v>
       </c>
       <c r="M11" t="n">
-        <v>58</v>
+        <v>928</v>
       </c>
       <c r="N11" t="n">
-        <v>68</v>
+        <v>1088</v>
       </c>
       <c r="O11" t="n">
-        <v>60</v>
-      </c>
-      <c r="P11" t="s">
-        <v>0</v>
+        <v>960</v>
+      </c>
+      <c r="P11" t="n">
+        <v>240</v>
       </c>
       <c r="Q11" t="n">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="R11" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="S11" t="n">
+        <v>308</v>
+      </c>
+      <c r="T11" t="n">
         <v>77</v>
-      </c>
-      <c r="T11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003528118133544922</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.02304387092590332</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.02936458587646484</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.05811953544616699</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.04053330421447754</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.03708982467651367</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.07475662231445312</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.08072924613952637</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0823509693145752</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.09876036643981934</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.1141204833984375</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.1047577857971191</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.1446831226348877</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.1357784271240234</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.1454379558563232</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.1118497848510742</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.1976554393768311</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.1858522891998291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.001609238</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.020721592</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.027943828</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.056422517</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.039119381</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.036129174</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.072477005</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.079209664</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.080584066</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.09683048599999999</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.112075458</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.102380866</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.1419652</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.133642672</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.142840768</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.109507918</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.194668144</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.183169078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s"/>
-      <c r="B15" t="s"/>
-      <c r="C15" t="n">
-        <v>11264</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50176</v>
-      </c>
-      <c r="E15" t="n">
-        <v>52480</v>
-      </c>
-      <c r="F15" t="n">
-        <v>102144</v>
-      </c>
-      <c r="G15" t="n">
-        <v>81152</v>
-      </c>
-      <c r="H15" t="n">
-        <v>81984</v>
-      </c>
-      <c r="I15" t="n">
-        <v>120640</v>
-      </c>
-      <c r="J15" t="n">
-        <v>129472</v>
-      </c>
-      <c r="K15" t="n">
-        <v>143168</v>
-      </c>
-      <c r="L15" t="n">
-        <v>143648</v>
-      </c>
-      <c r="M15" t="n">
-        <v>164608</v>
-      </c>
-      <c r="N15" t="n">
-        <v>155520</v>
-      </c>
-      <c r="O15" t="n">
-        <v>172960</v>
-      </c>
-      <c r="P15" t="n">
-        <v>173200</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>176376</v>
-      </c>
-      <c r="R15" t="n">
-        <v>162664</v>
-      </c>
-      <c r="S15" t="n">
-        <v>205256</v>
-      </c>
-      <c r="T15" t="n">
-        <v>205333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3072</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11264</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9216</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2304</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5120</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3328</v>
-      </c>
-      <c r="H16" t="n">
-        <v>832</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2240</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2176</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1920</v>
-      </c>
-      <c r="L16" t="n">
-        <v>480</v>
-      </c>
-      <c r="M16" t="n">
-        <v>928</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1088</v>
-      </c>
-      <c r="O16" t="n">
-        <v>960</v>
-      </c>
-      <c r="P16" t="n">
-        <v>240</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>232</v>
-      </c>
-      <c r="R16" t="n">
-        <v>220</v>
-      </c>
-      <c r="S16" t="n">
-        <v>308</v>
-      </c>
-      <c r="T16" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s"/>
-      <c r="B17" t="s"/>
-      <c r="C17" t="n">
-        <v>142714</v>
-      </c>
-      <c r="D17" t="n">
-        <v>110991</v>
-      </c>
-      <c r="E17" t="n">
-        <v>110991</v>
-      </c>
-      <c r="F17" t="n">
-        <v>144486</v>
-      </c>
-      <c r="G17" t="n">
-        <v>94016</v>
-      </c>
-      <c r="H17" t="n">
-        <v>94016</v>
-      </c>
-      <c r="I17" t="n">
-        <v>137709</v>
-      </c>
-      <c r="J17" t="n">
-        <v>141545</v>
-      </c>
-      <c r="K17" t="n">
-        <v>149500</v>
-      </c>
-      <c r="L17" t="n">
-        <v>149500</v>
-      </c>
-      <c r="M17" t="n">
-        <v>171112</v>
-      </c>
-      <c r="N17" t="n">
-        <v>159902</v>
-      </c>
-      <c r="O17" t="n">
-        <v>174903</v>
-      </c>
-      <c r="P17" t="n">
-        <v>174903</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>177584</v>
-      </c>
-      <c r="R17" t="n">
-        <v>163354</v>
-      </c>
-      <c r="S17" t="n">
-        <v>205333</v>
-      </c>
-      <c r="T17" t="n">
-        <v>205333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s"/>
-      <c r="B21" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" t="s">
-        <v>11</v>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
